--- a/data/survey_data.xlsx
+++ b/data/survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ichih/Desktop/mcb536/tfcb-homework01/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28792AC4-B061-124B-8198-01E26299C2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF3CC25-117C-4443-B955-1B7577DCBABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="1400" windowWidth="25120" windowHeight="15580" tabRatio="481" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="43">
   <si>
     <t>NA</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Scale calibration</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -182,11 +185,13 @@
     <font>
       <sz val="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
@@ -197,11 +202,13 @@
       <b/>
       <sz val="24"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FF808080"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
@@ -404,7 +411,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -807,7 +814,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -851,7 +858,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2369,7 +2376,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2419,6 +2426,9 @@
       <c r="D2" s="42" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="F2" s="42" t="s">
         <v>2</v>
       </c>
@@ -2459,6 +2469,9 @@
       <c r="D4" s="42" t="s">
         <v>1</v>
       </c>
+      <c r="E4" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="F4" s="42" t="s">
         <v>2</v>
       </c>
@@ -2475,6 +2488,9 @@
       </c>
       <c r="D5" s="42" t="s">
         <v>1</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>2</v>
@@ -3481,6 +3497,12 @@
       <c r="C28" s="42">
         <v>2</v>
       </c>
+      <c r="D28" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="F28" s="42" t="s">
         <v>0</v>
       </c>
@@ -3634,7 +3656,12 @@
       <c r="C32" s="42">
         <v>2</v>
       </c>
-      <c r="E32" s="43"/>
+      <c r="D32" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="F32" s="42" t="s">
         <v>6</v>
       </c>
@@ -3688,7 +3715,12 @@
       <c r="C34" s="42">
         <v>2</v>
       </c>
-      <c r="E34" s="43"/>
+      <c r="D34" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="F34" s="42" t="s">
         <v>7</v>
       </c>
@@ -3811,6 +3843,9 @@
       <c r="D39" s="42" t="s">
         <v>3</v>
       </c>
+      <c r="E39" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="F39" s="42" t="s">
         <v>0</v>
       </c>
@@ -3825,6 +3860,15 @@
       <c r="C40" s="42">
         <v>3</v>
       </c>
+      <c r="D40" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="40">
@@ -3938,6 +3982,9 @@
       </c>
       <c r="D46" s="42" t="s">
         <v>1</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="F46" s="42" t="s">
         <v>2</v>
